--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_14_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36151.92742398524</v>
+        <v>-44293.7441913818</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33917475.15840614</v>
+        <v>33917475.15840613</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11023411.17494687</v>
+        <v>11023411.17494686</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3502076.594875736</v>
+        <v>3502076.594875735</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1856318563249</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
       </c>
       <c r="H11" t="n">
-        <v>31.47863697981295</v>
+        <v>178.4237742066804</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.6468775146855</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>190.2122067878018</v>
       </c>
     </row>
     <row r="14">
@@ -1612,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>418.1856318563249</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>418.1856318563249</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>390.4694175453249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G14" t="n">
         <v>396.054118850051</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>237.6186254974932</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>68.51855584979678</v>
       </c>
       <c r="I16" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>80.73912648985655</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>203.0563037569318</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>265.4649627558474</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>186.535767956647</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2019,7 +2019,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>35.13097398123061</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>108.0241477136524</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>19.90052106684999</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2241,13 +2241,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>94.13208900787961</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>277.0289439627915</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,10 +2326,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>169.0012459373939</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>312.378451093472</v>
       </c>
     </row>
     <row r="24">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>369.3992114835618</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>184.0487136133858</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,19 +2718,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2778,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>141.5146711627301</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>183.4872045441993</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>323.2115213346352</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>11.45461388085802</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3031,7 +3031,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>174.9994365951942</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>289.0012590013216</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3249,10 +3249,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>137.6384805602085</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>77.79553947091692</v>
       </c>
       <c r="H35" t="n">
-        <v>133.5998951941978</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3435,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>146.3917356253871</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>200.1028142583222</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>170.9711526764026</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>109.5540470185014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>247.5475554488475</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>98.85709760052197</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>342.0435526850044</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>189.0019335287521</v>
       </c>
     </row>
     <row r="42">
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>30.54231102287983</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3957,7 +3957,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>197.0705209611669</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>204.9004856623719</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>139.4214382638853</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258659</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1310.125577359126</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="C11" t="n">
-        <v>1310.125577359126</v>
+        <v>1036.145279753613</v>
       </c>
       <c r="D11" t="n">
-        <v>887.7158482113231</v>
+        <v>1036.145279753613</v>
       </c>
       <c r="E11" t="n">
-        <v>887.7158482113231</v>
+        <v>1036.145279753613</v>
       </c>
       <c r="F11" t="n">
-        <v>465.3061190635201</v>
+        <v>613.7355506058104</v>
       </c>
       <c r="G11" t="n">
-        <v>65.25145355841806</v>
+        <v>213.6808851007084</v>
       </c>
       <c r="H11" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524211</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073327</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K11" t="n">
-        <v>362.984928209903</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L11" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M11" t="n">
         <v>801.8833353847205</v>
@@ -5059,34 +5059,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P11" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q11" t="n">
         <v>1590.048899840628</v>
       </c>
       <c r="R11" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S11" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T11" t="n">
-        <v>1672.7425274253</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U11" t="n">
-        <v>1672.7425274253</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V11" t="n">
-        <v>1310.125577359126</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="W11" t="n">
-        <v>1310.125577359126</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="X11" t="n">
-        <v>1310.125577359126</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="Y11" t="n">
-        <v>1310.125577359126</v>
+        <v>1458.555008901416</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C12" t="n">
-        <v>425.5107626718882</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D12" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E12" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F12" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G12" t="n">
         <v>68.24978812594554</v>
@@ -5117,7 +5117,7 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I12" t="n">
-        <v>83.76937108752904</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J12" t="n">
         <v>474.8738748284774</v>
@@ -5141,16 +5141,16 @@
         <v>1405.290844266289</v>
       </c>
       <c r="Q12" t="n">
-        <v>1511.837902771601</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R12" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S12" t="n">
         <v>1622.635830272358</v>
       </c>
       <c r="T12" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U12" t="n">
         <v>1319.064612101715</v>
@@ -5159,13 +5159,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W12" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X12" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y12" t="n">
-        <v>653.2711249150091</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>205.8254338966732</v>
+        <v>206.0165620652811</v>
       </c>
       <c r="C13" t="n">
-        <v>205.8254338966732</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D13" t="n">
-        <v>205.8254338966732</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E13" t="n">
-        <v>205.8254338966732</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F13" t="n">
         <v>33.45485054850599</v>
@@ -5199,52 +5199,52 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J13" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K13" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L13" t="n">
-        <v>231.6025814132115</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M13" t="n">
-        <v>324.1674353402283</v>
+        <v>880.6542221623231</v>
       </c>
       <c r="N13" t="n">
-        <v>738.1712108779899</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O13" t="n">
-        <v>1152.174986415752</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P13" t="n">
-        <v>1566.178761953513</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q13" t="n">
-        <v>1667.182735391306</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R13" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511418</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U13" t="n">
-        <v>1429.437390511418</v>
+        <v>1394.342390204034</v>
       </c>
       <c r="V13" t="n">
-        <v>1142.481882381848</v>
+        <v>1107.386882074465</v>
       </c>
       <c r="W13" t="n">
-        <v>870.4554779681396</v>
+        <v>835.3604776607565</v>
       </c>
       <c r="X13" t="n">
-        <v>625.063723301552</v>
+        <v>589.968722994169</v>
       </c>
       <c r="Y13" t="n">
-        <v>397.6440526156603</v>
+        <v>397.8351807842682</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1672.7425274253</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="C14" t="n">
-        <v>1672.7425274253</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="D14" t="n">
-        <v>1250.332798277497</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="E14" t="n">
-        <v>827.9230691296938</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="F14" t="n">
         <v>433.509516053608</v>
       </c>
       <c r="G14" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H14" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I14" t="n">
-        <v>83.79828774524235</v>
+        <v>83.79828774524185</v>
       </c>
       <c r="J14" t="n">
-        <v>195.5292216073329</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K14" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L14" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5296,34 +5296,34 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P14" t="n">
-        <v>1447.88852771026</v>
+        <v>1447.888527710259</v>
       </c>
       <c r="Q14" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R14" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S14" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T14" t="n">
-        <v>1672.7425274253</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U14" t="n">
-        <v>1672.7425274253</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V14" t="n">
-        <v>1672.7425274253</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="W14" t="n">
-        <v>1672.7425274253</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="X14" t="n">
-        <v>1672.7425274253</v>
+        <v>855.9192452014108</v>
       </c>
       <c r="Y14" t="n">
-        <v>1672.7425274253</v>
+        <v>855.9192452014108</v>
       </c>
     </row>
     <row r="15">
@@ -5339,19 +5339,19 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D15" t="n">
-        <v>330.4204738184414</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E15" t="n">
-        <v>236.3000591453951</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F15" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G15" t="n">
-        <v>68.24978812594553</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H15" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I15" t="n">
         <v>83.76937108752902</v>
@@ -5375,7 +5375,7 @@
         <v>1270.789775072916</v>
       </c>
       <c r="P15" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q15" t="n">
         <v>1511.8379027716</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.9008047460621</v>
+        <v>449.1305708105547</v>
       </c>
       <c r="C16" t="n">
-        <v>616.3390932292871</v>
+        <v>449.1305708105547</v>
       </c>
       <c r="D16" t="n">
-        <v>450.4611004308097</v>
+        <v>449.1305708105547</v>
       </c>
       <c r="E16" t="n">
-        <v>280.703096681547</v>
+        <v>279.372567061292</v>
       </c>
       <c r="F16" t="n">
-        <v>103.9960426433032</v>
+        <v>102.6655130230482</v>
       </c>
       <c r="G16" t="n">
-        <v>103.9960426433032</v>
+        <v>102.6655130230482</v>
       </c>
       <c r="H16" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J16" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K16" t="n">
-        <v>505.1482476164479</v>
+        <v>230.3897930453123</v>
       </c>
       <c r="L16" t="n">
-        <v>592.940721149037</v>
+        <v>644.3935685830738</v>
       </c>
       <c r="M16" t="n">
-        <v>880.654222162323</v>
+        <v>861.7096435212252</v>
       </c>
       <c r="N16" t="n">
-        <v>1294.657997700085</v>
+        <v>952.0735121144789</v>
       </c>
       <c r="O16" t="n">
-        <v>1378.12365616191</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P16" t="n">
         <v>1449.542946114066</v>
       </c>
       <c r="Q16" t="n">
-        <v>1667.182735391306</v>
+        <v>1667.182735391305</v>
       </c>
       <c r="R16" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1672.7425274253</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511418</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U16" t="n">
-        <v>1347.88271728934</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V16" t="n">
-        <v>1060.927209159771</v>
+        <v>1385.78701929573</v>
       </c>
       <c r="W16" t="n">
-        <v>788.9008047460621</v>
+        <v>1113.760614882021</v>
       </c>
       <c r="X16" t="n">
-        <v>788.9008047460621</v>
+        <v>868.3688602154336</v>
       </c>
       <c r="Y16" t="n">
-        <v>788.9008047460621</v>
+        <v>640.9491895295419</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1422.719694168252</v>
+        <v>651.8166204017319</v>
       </c>
       <c r="C17" t="n">
-        <v>984.5772213516757</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D17" t="n">
-        <v>984.5772213516757</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E17" t="n">
-        <v>984.5772213516757</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
         <v>1775.969506973259</v>
@@ -5551,16 +5551,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1849.01926465316</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1849.01926465316</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X17" t="n">
-        <v>1849.01926465316</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y17" t="n">
-        <v>1849.01926465316</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,7 +5585,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895473</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
@@ -5682,13 +5682,13 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1690.512214359095</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675981</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.711808856608</v>
+        <v>1379.186070007826</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.711808856608</v>
+        <v>1151.766399321934</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>495.1755175709086</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="C20" t="n">
-        <v>495.1755175709086</v>
+        <v>991.7343284158942</v>
       </c>
       <c r="D20" t="n">
-        <v>495.1755175709086</v>
+        <v>555.8245435903386</v>
       </c>
       <c r="E20" t="n">
-        <v>495.1755175709086</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>67.30808798011634</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895473</v>
@@ -5767,7 +5767,7 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5785,19 +5785,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>1745.473006065472</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>1340.617551476506</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X20" t="n">
-        <v>921.4750880558164</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="Y20" t="n">
-        <v>921.4750880558164</v>
+        <v>1429.876801232471</v>
       </c>
     </row>
     <row r="21">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C22" t="n">
-        <v>520.9988465953642</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D22" t="n">
-        <v>520.9988465953642</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E22" t="n">
         <v>520.9988465953642</v>
@@ -5910,25 +5910,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>359.53480224876</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>901.615485635019</v>
+        <v>767.330144624691</v>
       </c>
       <c r="M22" t="n">
-        <v>1485.796561053334</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N22" t="n">
-        <v>2055.554276014868</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1525.741883262483</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C23" t="n">
-        <v>1087.599410445906</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D23" t="n">
-        <v>651.6896256203504</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E23" t="n">
-        <v>217.9148807786456</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F23" t="n">
         <v>47.20655154895474</v>
@@ -5986,7 +5986,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
         <v>276.0532770435808</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447737</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="Y23" t="n">
-        <v>1952.04145374739</v>
+        <v>921.2588091910869</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
         <v>79.1492015823585</v>
@@ -6068,10 +6068,10 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6147,25 +6147,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.17407462327</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N25" t="n">
-        <v>1898.931789584804</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1346.991198798029</v>
+        <v>1722.256755431942</v>
       </c>
       <c r="C26" t="n">
-        <v>908.8487259814518</v>
+        <v>1284.114282615365</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>848.2044977898095</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>848.2044977898095</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>420.3370681990172</v>
       </c>
       <c r="G26" t="n">
         <v>47.20655154895474</v>
@@ -6223,7 +6223,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J26" t="n">
         <v>276.0532770435808</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W26" t="n">
-        <v>2174.419785919064</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X26" t="n">
-        <v>1755.277322498375</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y26" t="n">
-        <v>1346.991198798029</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>616.081764785142</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="C28" t="n">
-        <v>443.520053268367</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D28" t="n">
-        <v>393.6716093364613</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E28" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895474</v>
@@ -6393,13 +6393,13 @@
         <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540314</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X28" t="n">
-        <v>1035.320054190021</v>
+        <v>1271.727790026514</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.9003835041292</v>
+        <v>1044.308119340623</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.2588091910869</v>
+        <v>755.070575821621</v>
       </c>
       <c r="C29" t="n">
-        <v>483.1163363745102</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W29" t="n">
-        <v>2174.986966797031</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X29" t="n">
-        <v>1755.844503376341</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y29" t="n">
-        <v>1347.558379675995</v>
+        <v>755.070575821621</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.081764785142</v>
+        <v>743.6816307030854</v>
       </c>
       <c r="C31" t="n">
-        <v>443.520053268367</v>
+        <v>571.1199191863103</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6716093364613</v>
+        <v>405.241926387833</v>
       </c>
       <c r="E31" t="n">
-        <v>223.9136055871985</v>
+        <v>235.4839226385703</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895474</v>
+        <v>58.77686860032648</v>
       </c>
       <c r="G31" t="n">
         <v>47.20655154895474</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>744.992999204955</v>
+        <v>828.1746199579906</v>
       </c>
       <c r="M31" t="n">
-        <v>1329.17407462327</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N31" t="n">
-        <v>1898.931789584804</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856609</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1162.919920107964</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041292</v>
+        <v>935.5002494220726</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.1270151866534</v>
+        <v>893.1979019974805</v>
       </c>
       <c r="C32" t="n">
-        <v>339.1270151866534</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D32" t="n">
-        <v>339.1270151866534</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E32" t="n">
-        <v>339.1270151866534</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895475</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001359</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435811</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228021</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867028</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M32" t="n">
         <v>1131.58869045549</v>
@@ -6721,7 +6721,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
@@ -6733,19 +6733,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V32" t="n">
-        <v>1997.710627381564</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W32" t="n">
-        <v>1592.855172792597</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X32" t="n">
-        <v>1173.712709371908</v>
+        <v>1319.497472482388</v>
       </c>
       <c r="Y32" t="n">
-        <v>765.4265856715612</v>
+        <v>1319.497472482388</v>
       </c>
     </row>
     <row r="33">
@@ -6758,22 +6758,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>481.9462364092386</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827554</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789088</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.320157362631</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1937.514407000715</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1650.558898871145</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W34" t="n">
-        <v>1650.558898871145</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1889.485634438363</v>
+        <v>553.6553341406732</v>
       </c>
       <c r="C35" t="n">
-        <v>1451.343161621786</v>
+        <v>553.6553341406732</v>
       </c>
       <c r="D35" t="n">
-        <v>1015.433376796231</v>
+        <v>553.6553341406732</v>
       </c>
       <c r="E35" t="n">
-        <v>581.6586319545258</v>
+        <v>553.6553341406732</v>
       </c>
       <c r="F35" t="n">
-        <v>581.6586319545258</v>
+        <v>125.7879045498809</v>
       </c>
       <c r="G35" t="n">
-        <v>182.155940634003</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,10 +6955,10 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6970,19 +6970,19 @@
         <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1889.485634438363</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1889.485634438363</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W35" t="n">
-        <v>1889.485634438363</v>
+        <v>1381.083921261709</v>
       </c>
       <c r="X35" t="n">
-        <v>1889.485634438363</v>
+        <v>961.9414578410198</v>
       </c>
       <c r="Y35" t="n">
-        <v>1889.485634438363</v>
+        <v>553.6553341406732</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7007,13 +7007,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1029.196554659879</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C37" t="n">
-        <v>856.6348431431041</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="D37" t="n">
-        <v>690.7568503446269</v>
+        <v>725.0155228957786</v>
       </c>
       <c r="E37" t="n">
-        <v>520.9988465953642</v>
+        <v>555.257519146516</v>
       </c>
       <c r="F37" t="n">
-        <v>344.2917925571204</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>358.07543479094</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092379</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1937.514407000714</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1650.558898871144</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W37" t="n">
-        <v>1650.558898871144</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.434844064758</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y37" t="n">
-        <v>1221.015173378866</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1782.900983623584</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>647.7721151563153</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>219.904685565523</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
         <v>1463.013992431967</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7204,22 +7204,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X38" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.200554108492</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="39">
@@ -7232,22 +7232,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>859.4385509106165</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E40" t="n">
         <v>520.9988465953642</v>
@@ -7326,10 +7326,10 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
@@ -7338,19 +7338,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M40" t="n">
-        <v>1690.512214359095</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N40" t="n">
-        <v>1887.361501150536</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O40" t="n">
         <v>2005.127382498298</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U40" t="n">
-        <v>2215.901038951971</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V40" t="n">
-        <v>1965.853003145054</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W40" t="n">
-        <v>1693.826598731346</v>
+        <v>1378.532494457437</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.434844064758</v>
+        <v>1278.676840315495</v>
       </c>
       <c r="Y40" t="n">
-        <v>1221.015173378866</v>
+        <v>1051.257169629604</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>755.070575821621</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="C41" t="n">
-        <v>316.9281030050443</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D41" t="n">
-        <v>316.9281030050443</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E41" t="n">
-        <v>316.9281030050443</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.556325916849</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438363</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.86868437219</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W41" t="n">
-        <v>1181.370146306529</v>
+        <v>1484.630179849396</v>
       </c>
       <c r="X41" t="n">
-        <v>1181.370146306529</v>
+        <v>1065.487716428706</v>
       </c>
       <c r="Y41" t="n">
-        <v>1181.370146306529</v>
+        <v>874.5766724602698</v>
       </c>
     </row>
     <row r="42">
@@ -7472,28 +7472,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.081764785142</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C43" t="n">
-        <v>616.081764785142</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D43" t="n">
-        <v>450.2037719866647</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E43" t="n">
-        <v>419.3529527716346</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>326.783117436994</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M43" t="n">
-        <v>897.9345369632207</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N43" t="n">
-        <v>1467.692251924755</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>1959.82592890043</v>
       </c>
       <c r="P43" t="n">
         <v>2105.896438675981</v>
@@ -7593,28 +7593,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270317</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856609</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1495.863289652878</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="C44" t="n">
-        <v>1057.720816836301</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="D44" t="n">
-        <v>621.8110320107457</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E44" t="n">
-        <v>188.0362871690409</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W44" t="n">
-        <v>1915.005753073567</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X44" t="n">
-        <v>1495.863289652878</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y44" t="n">
-        <v>1495.863289652878</v>
+        <v>1081.546859998019</v>
       </c>
     </row>
     <row r="45">
@@ -7709,40 +7709,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268367</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E46" t="n">
         <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
         <v>2118.080353351143</v>
@@ -7842,16 +7842,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
   </sheetData>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>197.1198455416862</v>
       </c>
       <c r="N13" t="n">
-        <v>326.9089969136443</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O13" t="n">
-        <v>333.876885935289</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>346.0449349349551</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>52.07773638877325</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="Q15" t="n">
-        <v>16.80470271645345</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9087,22 +9087,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M16" t="n">
-        <v>197.1198455416861</v>
+        <v>126.0113343546814</v>
       </c>
       <c r="N16" t="n">
-        <v>326.9089969136443</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9330,16 +9330,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>70.05088382580971</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>158.2045317475394</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>80.00897722411275</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>158.2045317475395</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10041,16 +10041,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>192.4544649334023</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>288.1634641124963</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>141.4680432173446</v>
       </c>
       <c r="M31" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>158.2045317475395</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>156.7304232042875</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.1582657371572</v>
+        <v>192.4544649334023</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10746,7 +10746,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>69.27619576520618</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10755,16 +10755,16 @@
         <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,13 +10986,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371568</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>70.05088382580965</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>444.9969971592901</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>45.75904403825007</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M46" t="n">
-        <v>192.4544649334027</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D11" t="n">
-        <v>13.365055120975</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559419</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.1420755233592</v>
+        <v>94.19693829649174</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T11" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -23427,7 +23427,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>4.29310598317582</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.3388892342509</v>
@@ -23469,10 +23469,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>34.93326719123104</v>
       </c>
     </row>
     <row r="14">
@@ -23500,13 +23500,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>13.365055120975</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>11.25136553696285</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>33.11933774955946</v>
+        <v>5.403123438559533</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23548,19 +23548,19 @@
         <v>52.51403670113841</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>177.3324132889892</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1999654356588</v>
+        <v>64.68140958586203</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>194.8770093591957</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>230.7047443314791</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23743,13 +23743,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>158.1237925390369</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -23800,7 +23800,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.364664575150272</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>207.806863138691</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>321.4128496796353</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>375.6071433404676</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24025,13 +24025,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>76.7040053937277</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>7.057009085482377</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>254.5875093574904</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>91.8248113698711</v>
       </c>
     </row>
     <row r="24">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>26.10845292375575</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,7 +24496,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>216.7581864296912</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>101.4231659571915</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24697,7 +24697,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>217.3196954988777</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>80.99174112870793</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>151.6391547027487</v>
       </c>
       <c r="H31" t="n">
         <v>131.0206200144773</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>258.7616114932167</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24928,13 +24928,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>134.5874962935627</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>105.2993565597131</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>317.7121249364006</v>
       </c>
       <c r="H35" t="n">
-        <v>133.4244407473309</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>28.54824787247421</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>42.83502286159944</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>224.536511730915</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>294.6492154448417</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>36.53839759942633</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>144.0807395193997</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25639,13 +25639,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>58.76334735807262</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>215.201328934591</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>137.5181126888903</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>87.01543208710689</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>226.650201314928</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>284.167317030999</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779059</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>421452.0792985472</v>
+        <v>421452.0792985471</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421452.079298547</v>
+        <v>421452.0792985471</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>421452.079298547</v>
+        <v>421452.0792985471</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>421452.0792985471</v>
+        <v>421452.0792985469</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421452.0792985471</v>
+        <v>421452.0792985469</v>
       </c>
     </row>
   </sheetData>
@@ -26331,13 +26331,13 @@
         <v>141567.8141707356</v>
       </c>
       <c r="H2" t="n">
-        <v>141567.8141707355</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="I2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="J2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="K2" t="n">
         <v>141567.8141707356</v>
@@ -26349,13 +26349,13 @@
         <v>141567.8141707356</v>
       </c>
       <c r="N2" t="n">
-        <v>141567.8141707355</v>
+        <v>141567.8141707357</v>
       </c>
       <c r="O2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="P2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390603.7529837592</v>
+        <v>390603.752983759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104213.5322011235</v>
+        <v>104213.5322011236</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>41367.0074682374</v>
+        <v>41367.00746823734</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26438,13 +26438,13 @@
         <v>12946.16329191559</v>
       </c>
       <c r="I4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="J4" t="n">
         <v>12946.1632919156</v>
       </c>
       <c r="K4" t="n">
-        <v>12946.16329191559</v>
+        <v>12946.1632919156</v>
       </c>
       <c r="L4" t="n">
         <v>12946.1632919156</v>
@@ -26456,10 +26456,10 @@
         <v>12946.1632919156</v>
       </c>
       <c r="O4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
       <c r="P4" t="n">
-        <v>12946.1632919156</v>
+        <v>12946.16329191559</v>
       </c>
     </row>
     <row r="5">
@@ -26499,19 +26499,19 @@
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="N5" t="n">
+        <v>46051.08120963782</v>
+      </c>
+      <c r="O5" t="n">
         <v>46051.08120963781</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>46051.08120963781</v>
-      </c>
-      <c r="O5" t="n">
-        <v>46051.08120963782</v>
-      </c>
-      <c r="P5" t="n">
-        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-330208.167963687</v>
+        <v>-330939.9188854616</v>
       </c>
       <c r="F6" t="n">
-        <v>60395.58502007215</v>
+        <v>59663.83409829742</v>
       </c>
       <c r="G6" t="n">
-        <v>-70227.84723738726</v>
+        <v>-70781.7276806092</v>
       </c>
       <c r="H6" t="n">
-        <v>82570.56966918214</v>
+        <v>82016.68922596022</v>
       </c>
       <c r="I6" t="n">
-        <v>82570.56966918221</v>
+        <v>82016.68922596022</v>
       </c>
       <c r="J6" t="n">
-        <v>82570.56966918224</v>
+        <v>82016.68922596025</v>
       </c>
       <c r="K6" t="n">
-        <v>82570.56966918221</v>
+        <v>82016.68922596025</v>
       </c>
       <c r="L6" t="n">
-        <v>82570.56966918222</v>
+        <v>82016.6892259603</v>
       </c>
       <c r="M6" t="n">
-        <v>-21642.96253194132</v>
+        <v>-22196.84297516331</v>
       </c>
       <c r="N6" t="n">
-        <v>82570.56966918212</v>
+        <v>82016.6892259603</v>
       </c>
       <c r="O6" t="n">
-        <v>41203.56220094481</v>
+        <v>40649.68175772295</v>
       </c>
       <c r="P6" t="n">
-        <v>82570.56966918224</v>
+        <v>82016.6892259603</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="F3" t="n">
         <v>330.7713854632872</v>
@@ -26776,10 +26776,10 @@
         <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F4" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619341</v>
@@ -26819,19 +26819,19 @@
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>171.8962625056092</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056093</v>
+        <v>171.8962625056091</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>171.8962625056092</v>
+        <v>171.8962625056093</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I11" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536268</v>
@@ -31767,13 +31767,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O11" t="n">
         <v>224.0452553667434</v>
@@ -31785,13 +31785,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S11" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T11" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U11" t="n">
         <v>0.1063787370334189</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H12" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I12" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J12" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K12" t="n">
         <v>114.8868877226589</v>
@@ -31861,10 +31861,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R12" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S12" t="n">
         <v>13.21525299468887</v>
@@ -31873,7 +31873,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H13" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I13" t="n">
         <v>17.9375695592222</v>
@@ -31922,25 +31922,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K13" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L13" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N13" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O13" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P13" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R13" t="n">
         <v>26.81959463117078</v>
@@ -31952,7 +31952,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35406,25 +35406,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J11" t="n">
         <v>112.8595291536269</v>
       </c>
       <c r="K11" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L11" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M11" t="n">
-        <v>233.4896926139918</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N11" t="n">
         <v>237.2677999464443</v>
       </c>
       <c r="O11" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P11" t="n">
         <v>191.2174419853368</v>
@@ -35433,7 +35433,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R11" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.8227480192152</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J12" t="n">
         <v>395.0550542837863</v>
@@ -35503,7 +35503,7 @@
         <v>185.041626288561</v>
       </c>
       <c r="O12" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P12" t="n">
         <v>135.8596658518925</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K13" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L13" t="n">
         <v>88.67926619453442</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153209</v>
+        <v>290.6196979932183</v>
       </c>
       <c r="N13" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O13" t="n">
-        <v>418.1856318563249</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P13" t="n">
-        <v>418.185631856325</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.0242155937297</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R13" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J14" t="n">
-        <v>112.8595291536268</v>
+        <v>112.859529153627</v>
       </c>
       <c r="K14" t="n">
         <v>169.1471783864346</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.82274801921518</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J15" t="n">
         <v>395.0550542837863</v>
@@ -35743,10 +35743,10 @@
         <v>169.2769372379901</v>
       </c>
       <c r="P15" t="n">
-        <v>135.8596658518925</v>
+        <v>152.6643685683459</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.6232914195054</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R15" t="n">
         <v>162.5299238926257</v>
@@ -35807,22 +35807,22 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K16" t="n">
-        <v>346.8331089915197</v>
+        <v>69.29931649542311</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M16" t="n">
-        <v>290.6196979932182</v>
+        <v>219.5111868062135</v>
       </c>
       <c r="N16" t="n">
-        <v>418.1856318563249</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103601</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q16" t="n">
         <v>219.8381709871103</v>
@@ -35898,7 +35898,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -36050,16 +36050,16 @@
         <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>198.8376634256981</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36199,7 +36199,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>255.9824111087093</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>205.1309990607773</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36436,13 +36436,13 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36454,13 +36454,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>277.1599674523495</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36761,16 +36761,16 @@
         <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>324.3780935581794</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954892</v>
+        <v>416.9502437123847</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
         <v>70.4719911420766</v>
@@ -36834,13 +36834,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.5562458447062</v>
+        <v>266.5900650540092</v>
       </c>
       <c r="M31" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>277.1599674523495</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>281.852445040952</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619344</v>
+        <v>324.3780935581794</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>167.0540751263761</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M40" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>198.8376634256981</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048098</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37785,7 +37785,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>576.9206257840674</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>147.5459694702533</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L45" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38180,16 +38180,16 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M46" t="n">
-        <v>324.3780935581799</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N46" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P46" t="n">
         <v>101.7869254320035</v>
